--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Mmrn2</t>
+  </si>
+  <si>
+    <t>Cd248</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmrn2</t>
-  </si>
-  <si>
-    <t>Cd248</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.49793866666667</v>
+        <v>59.227497</v>
       </c>
       <c r="H2">
-        <v>160.493816</v>
+        <v>177.682491</v>
       </c>
       <c r="I2">
-        <v>0.9722698028472853</v>
+        <v>0.9751128597187447</v>
       </c>
       <c r="J2">
-        <v>0.9722698028472851</v>
+        <v>0.9751128597187446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.828008</v>
+        <v>3.091684666666667</v>
       </c>
       <c r="N2">
-        <v>8.484024</v>
+        <v>9.275054000000001</v>
       </c>
       <c r="O2">
-        <v>0.04369876216807365</v>
+        <v>0.04809774724583403</v>
       </c>
       <c r="P2">
-        <v>0.04369876216807365</v>
+        <v>0.04809774724583402</v>
       </c>
       <c r="Q2">
-        <v>151.2925985328427</v>
+        <v>183.112744319946</v>
       </c>
       <c r="R2">
-        <v>1361.633386795584</v>
+        <v>1648.014698879514</v>
       </c>
       <c r="S2">
-        <v>0.04248698687782337</v>
+        <v>0.0469007318629146</v>
       </c>
       <c r="T2">
-        <v>0.04248698687782337</v>
+        <v>0.04690073186291459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.49793866666667</v>
+        <v>59.227497</v>
       </c>
       <c r="H3">
-        <v>160.493816</v>
+        <v>177.682491</v>
       </c>
       <c r="I3">
-        <v>0.9722698028472853</v>
+        <v>0.9751128597187447</v>
       </c>
       <c r="J3">
-        <v>0.9722698028472851</v>
+        <v>0.9751128597187446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>175.729393</v>
       </c>
       <c r="O3">
-        <v>0.9051314506709252</v>
+        <v>0.9112818025833417</v>
       </c>
       <c r="P3">
-        <v>0.9051314506709253</v>
+        <v>0.9112818025833417</v>
       </c>
       <c r="Q3">
-        <v>3133.720096214854</v>
+        <v>3469.337365573107</v>
       </c>
       <c r="R3">
-        <v>28203.48086593369</v>
+        <v>31224.03629015796</v>
       </c>
       <c r="S3">
-        <v>0.8800319770946977</v>
+        <v>0.8886026045266949</v>
       </c>
       <c r="T3">
-        <v>0.8800319770946977</v>
+        <v>0.8886026045266948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.49793866666667</v>
+        <v>59.227497</v>
       </c>
       <c r="H4">
-        <v>160.493816</v>
+        <v>177.682491</v>
       </c>
       <c r="I4">
-        <v>0.9722698028472853</v>
+        <v>0.9751128597187447</v>
       </c>
       <c r="J4">
-        <v>0.9722698028472851</v>
+        <v>0.9751128597187446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.106015</v>
+        <v>0.1241513333333333</v>
       </c>
       <c r="N4">
-        <v>0.318045</v>
+        <v>0.372454</v>
       </c>
       <c r="O4">
-        <v>0.001638158120927638</v>
+        <v>0.001931438712130395</v>
       </c>
       <c r="P4">
-        <v>0.001638158120927638</v>
+        <v>0.001931438712130395</v>
       </c>
       <c r="Q4">
-        <v>5.671583967746668</v>
+        <v>7.353172722546</v>
       </c>
       <c r="R4">
-        <v>51.04425570972001</v>
+        <v>66.178554502914</v>
       </c>
       <c r="S4">
-        <v>0.001592731673266994</v>
+        <v>0.001883370725956959</v>
       </c>
       <c r="T4">
-        <v>0.001592731673266994</v>
+        <v>0.001883370725956958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.49793866666667</v>
+        <v>59.227497</v>
       </c>
       <c r="H5">
-        <v>160.493816</v>
+        <v>177.682491</v>
       </c>
       <c r="I5">
-        <v>0.9722698028472853</v>
+        <v>0.9751128597187447</v>
       </c>
       <c r="J5">
-        <v>0.9722698028472851</v>
+        <v>0.9751128597187446</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.117853</v>
+        <v>2.447782</v>
       </c>
       <c r="N5">
-        <v>9.353559000000001</v>
+        <v>7.343346</v>
       </c>
       <c r="O5">
-        <v>0.04817748631616846</v>
+        <v>0.03808046830203968</v>
       </c>
       <c r="P5">
-        <v>0.04817748631616846</v>
+        <v>0.03808046830203967</v>
       </c>
       <c r="Q5">
-        <v>166.7987085656827</v>
+        <v>144.976001061654</v>
       </c>
       <c r="R5">
-        <v>1501.188377091144</v>
+        <v>1304.784009554886</v>
       </c>
       <c r="S5">
-        <v>0.04684151512229889</v>
+        <v>0.03713275434543092</v>
       </c>
       <c r="T5">
-        <v>0.04684151512229889</v>
+        <v>0.03713275434543091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.49793866666667</v>
+        <v>59.227497</v>
       </c>
       <c r="H6">
-        <v>160.493816</v>
+        <v>177.682491</v>
       </c>
       <c r="I6">
-        <v>0.9722698028472853</v>
+        <v>0.9751128597187447</v>
       </c>
       <c r="J6">
-        <v>0.9722698028472851</v>
+        <v>0.9751128597187446</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08763466666666665</v>
+        <v>0.03911666666666667</v>
       </c>
       <c r="N6">
-        <v>0.262904</v>
+        <v>0.11735</v>
       </c>
       <c r="O6">
-        <v>0.001354142723904981</v>
+        <v>0.0006085431566542494</v>
       </c>
       <c r="P6">
-        <v>0.001354142723904981</v>
+        <v>0.0006085431566542494</v>
       </c>
       <c r="Q6">
-        <v>4.688274022407111</v>
+        <v>2.31678225765</v>
       </c>
       <c r="R6">
-        <v>42.194466201664</v>
+        <v>20.85104031885</v>
       </c>
       <c r="S6">
-        <v>0.001316592079198182</v>
+        <v>0.0005933982577473972</v>
       </c>
       <c r="T6">
-        <v>0.001316592079198182</v>
+        <v>0.0005933982577473971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9300769999999998</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H7">
-        <v>2.790230999999999</v>
+        <v>2.790231</v>
       </c>
       <c r="I7">
-        <v>0.01690318924355555</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="J7">
-        <v>0.01690318924355554</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.828008</v>
+        <v>3.091684666666667</v>
       </c>
       <c r="N7">
-        <v>8.484024</v>
+        <v>9.275054000000001</v>
       </c>
       <c r="O7">
-        <v>0.04369876216807365</v>
+        <v>0.04809774724583403</v>
       </c>
       <c r="P7">
-        <v>0.04369876216807365</v>
+        <v>0.04809774724583402</v>
       </c>
       <c r="Q7">
-        <v>2.630265196616</v>
+        <v>2.875504799719334</v>
       </c>
       <c r="R7">
-        <v>23.67238676954399</v>
+        <v>25.879543197474</v>
       </c>
       <c r="S7">
-        <v>0.0007386484466360745</v>
+        <v>0.0007365040597421163</v>
       </c>
       <c r="T7">
-        <v>0.0007386484466360743</v>
+        <v>0.0007365040597421162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9300769999999998</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H8">
-        <v>2.790230999999999</v>
+        <v>2.790231</v>
       </c>
       <c r="I8">
-        <v>0.01690318924355555</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="J8">
-        <v>0.01690318924355554</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>175.729393</v>
       </c>
       <c r="O8">
-        <v>0.9051314506709252</v>
+        <v>0.9112818025833417</v>
       </c>
       <c r="P8">
-        <v>0.9051314506709253</v>
+        <v>0.9112818025833417</v>
       </c>
       <c r="Q8">
-        <v>54.48062221775365</v>
+        <v>54.48062221775366</v>
       </c>
       <c r="R8">
         <v>490.3255999597829</v>
       </c>
       <c r="S8">
-        <v>0.01529960820098461</v>
+        <v>0.01395414100667423</v>
       </c>
       <c r="T8">
-        <v>0.01529960820098461</v>
+        <v>0.01395414100667423</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,14 +959,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9300769999999998</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H9">
-        <v>2.790230999999999</v>
+        <v>2.790231</v>
       </c>
       <c r="I9">
-        <v>0.01690318924355555</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="J9">
-        <v>0.01690318924355554</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.106015</v>
+        <v>0.1241513333333333</v>
       </c>
       <c r="N9">
-        <v>0.318045</v>
+        <v>0.372454</v>
       </c>
       <c r="O9">
-        <v>0.001638158120927638</v>
+        <v>0.001931438712130395</v>
       </c>
       <c r="P9">
-        <v>0.001638158120927638</v>
+        <v>0.001931438712130395</v>
       </c>
       <c r="Q9">
-        <v>0.09860211315499999</v>
+        <v>0.1154702996526667</v>
       </c>
       <c r="R9">
-        <v>0.8874190183949999</v>
+        <v>1.039232696874</v>
       </c>
       <c r="S9">
-        <v>2.769009672890722E-05</v>
+        <v>2.957544862457838E-05</v>
       </c>
       <c r="T9">
-        <v>2.769009672890722E-05</v>
+        <v>2.957544862457837E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9300769999999998</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H10">
-        <v>2.790230999999999</v>
+        <v>2.790231</v>
       </c>
       <c r="I10">
-        <v>0.01690318924355555</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="J10">
-        <v>0.01690318924355554</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.117853</v>
+        <v>2.447782</v>
       </c>
       <c r="N10">
-        <v>9.353559000000001</v>
+        <v>7.343346</v>
       </c>
       <c r="O10">
-        <v>0.04817748631616846</v>
+        <v>0.03808046830203968</v>
       </c>
       <c r="P10">
-        <v>0.04817748631616846</v>
+        <v>0.03808046830203967</v>
       </c>
       <c r="Q10">
-        <v>2.899843364681</v>
+        <v>2.276625739214</v>
       </c>
       <c r="R10">
-        <v>26.098590282129</v>
+        <v>20.489631652926</v>
       </c>
       <c r="S10">
-        <v>0.0008143531684810032</v>
+        <v>0.00058311295450043</v>
       </c>
       <c r="T10">
-        <v>0.0008143531684810031</v>
+        <v>0.0005831129545004298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9300769999999998</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H11">
-        <v>2.790230999999999</v>
+        <v>2.790231</v>
       </c>
       <c r="I11">
-        <v>0.01690318924355555</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="J11">
-        <v>0.01690318924355554</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.08763466666666665</v>
+        <v>0.03911666666666667</v>
       </c>
       <c r="N11">
-        <v>0.262904</v>
+        <v>0.11735</v>
       </c>
       <c r="O11">
-        <v>0.001354142723904981</v>
+        <v>0.0006085431566542494</v>
       </c>
       <c r="P11">
-        <v>0.001354142723904981</v>
+        <v>0.0006085431566542494</v>
       </c>
       <c r="Q11">
-        <v>0.0815069878693333</v>
+        <v>0.03638151198333333</v>
       </c>
       <c r="R11">
-        <v>0.7335628908239997</v>
+        <v>0.32743360785</v>
       </c>
       <c r="S11">
-        <v>2.288933072494968E-05</v>
+        <v>9.318409511226278E-06</v>
       </c>
       <c r="T11">
-        <v>2.288933072494968E-05</v>
+        <v>9.318409511226278E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08127666666666668</v>
+        <v>0.581546</v>
       </c>
       <c r="H12">
-        <v>0.24383</v>
+        <v>1.744638</v>
       </c>
       <c r="I12">
-        <v>0.001477119504892659</v>
+        <v>0.009574488402202732</v>
       </c>
       <c r="J12">
-        <v>0.001477119504892659</v>
+        <v>0.00957448840220273</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.828008</v>
+        <v>3.091684666666667</v>
       </c>
       <c r="N12">
-        <v>8.484024</v>
+        <v>9.275054000000001</v>
       </c>
       <c r="O12">
-        <v>0.04369876216807365</v>
+        <v>0.04809774724583403</v>
       </c>
       <c r="P12">
-        <v>0.04369876216807365</v>
+        <v>0.04809774724583402</v>
       </c>
       <c r="Q12">
-        <v>0.2298510635466667</v>
+        <v>1.797956851161334</v>
       </c>
       <c r="R12">
-        <v>2.06865957192</v>
+        <v>16.181611660452</v>
       </c>
       <c r="S12">
-        <v>6.454829393812702E-05</v>
+        <v>0.0004605113231773163</v>
       </c>
       <c r="T12">
-        <v>6.454829393812702E-05</v>
+        <v>0.0004605113231773162</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08127666666666668</v>
+        <v>0.581546</v>
       </c>
       <c r="H13">
-        <v>0.24383</v>
+        <v>1.744638</v>
       </c>
       <c r="I13">
-        <v>0.001477119504892659</v>
+        <v>0.009574488402202732</v>
       </c>
       <c r="J13">
-        <v>0.001477119504892659</v>
+        <v>0.00957448840220273</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>175.729393</v>
       </c>
       <c r="O13">
-        <v>0.9051314506709252</v>
+        <v>0.9112818025833417</v>
       </c>
       <c r="P13">
-        <v>0.9051314506709253</v>
+        <v>0.9112818025833417</v>
       </c>
       <c r="Q13">
-        <v>4.760899766132223</v>
+        <v>34.06490852719266</v>
       </c>
       <c r="R13">
-        <v>42.84809789519</v>
+        <v>306.584176744734</v>
       </c>
       <c r="S13">
-        <v>0.001336987320277812</v>
+        <v>0.008725057049972604</v>
       </c>
       <c r="T13">
-        <v>0.001336987320277811</v>
+        <v>0.008725057049972604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08127666666666668</v>
+        <v>0.581546</v>
       </c>
       <c r="H14">
-        <v>0.24383</v>
+        <v>1.744638</v>
       </c>
       <c r="I14">
-        <v>0.001477119504892659</v>
+        <v>0.009574488402202732</v>
       </c>
       <c r="J14">
-        <v>0.001477119504892659</v>
+        <v>0.00957448840220273</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.106015</v>
+        <v>0.1241513333333333</v>
       </c>
       <c r="N14">
-        <v>0.318045</v>
+        <v>0.372454</v>
       </c>
       <c r="O14">
-        <v>0.001638158120927638</v>
+        <v>0.001931438712130395</v>
       </c>
       <c r="P14">
-        <v>0.001638158120927638</v>
+        <v>0.001931438712130395</v>
       </c>
       <c r="Q14">
-        <v>0.008616545816666668</v>
+        <v>0.07219971129466667</v>
       </c>
       <c r="R14">
-        <v>0.07754891235000001</v>
+        <v>0.649797401652</v>
       </c>
       <c r="S14">
-        <v>2.419755312520522E-06</v>
+        <v>1.849253754885785E-05</v>
       </c>
       <c r="T14">
-        <v>2.419755312520522E-06</v>
+        <v>1.849253754885784E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08127666666666668</v>
+        <v>0.581546</v>
       </c>
       <c r="H15">
-        <v>0.24383</v>
+        <v>1.744638</v>
       </c>
       <c r="I15">
-        <v>0.001477119504892659</v>
+        <v>0.009574488402202732</v>
       </c>
       <c r="J15">
-        <v>0.001477119504892659</v>
+        <v>0.00957448840220273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.117853</v>
+        <v>2.447782</v>
       </c>
       <c r="N15">
-        <v>9.353559000000001</v>
+        <v>7.343346</v>
       </c>
       <c r="O15">
-        <v>0.04817748631616846</v>
+        <v>0.03808046830203968</v>
       </c>
       <c r="P15">
-        <v>0.04817748631616846</v>
+        <v>0.03808046830203967</v>
       </c>
       <c r="Q15">
-        <v>0.2534086989966667</v>
+        <v>1.423497830972</v>
       </c>
       <c r="R15">
-        <v>2.280678290970001</v>
+        <v>12.811480478748</v>
       </c>
       <c r="S15">
-        <v>7.116390473431162E-05</v>
+        <v>0.0003646010021083277</v>
       </c>
       <c r="T15">
-        <v>7.116390473431162E-05</v>
+        <v>0.0003646010021083275</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08127666666666668</v>
+        <v>0.581546</v>
       </c>
       <c r="H16">
-        <v>0.24383</v>
+        <v>1.744638</v>
       </c>
       <c r="I16">
-        <v>0.001477119504892659</v>
+        <v>0.009574488402202732</v>
       </c>
       <c r="J16">
-        <v>0.001477119504892659</v>
+        <v>0.00957448840220273</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,648 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.08763466666666665</v>
+        <v>0.03911666666666667</v>
       </c>
       <c r="N16">
-        <v>0.262904</v>
+        <v>0.11735</v>
       </c>
       <c r="O16">
-        <v>0.001354142723904981</v>
+        <v>0.0006085431566542494</v>
       </c>
       <c r="P16">
-        <v>0.001354142723904981</v>
+        <v>0.0006085431566542494</v>
       </c>
       <c r="Q16">
-        <v>0.007122653591111111</v>
+        <v>0.02274814103333334</v>
       </c>
       <c r="R16">
-        <v>0.06410388232</v>
+        <v>0.2047332693</v>
       </c>
       <c r="S16">
-        <v>2.000230629888523E-06</v>
+        <v>5.826489395625951E-06</v>
       </c>
       <c r="T16">
-        <v>2.000230629888523E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.4804453333333334</v>
-      </c>
-      <c r="H17">
-        <v>1.441336</v>
-      </c>
-      <c r="I17">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="J17">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.828008</v>
-      </c>
-      <c r="N17">
-        <v>8.484024</v>
-      </c>
-      <c r="O17">
-        <v>0.04369876216807365</v>
-      </c>
-      <c r="P17">
-        <v>0.04369876216807365</v>
-      </c>
-      <c r="Q17">
-        <v>1.358703246229334</v>
-      </c>
-      <c r="R17">
-        <v>12.228329216064</v>
-      </c>
-      <c r="S17">
-        <v>0.0003815600204716575</v>
-      </c>
-      <c r="T17">
-        <v>0.0003815600204716575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.4804453333333334</v>
-      </c>
-      <c r="H18">
-        <v>1.441336</v>
-      </c>
-      <c r="I18">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="J18">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>58.57646433333333</v>
-      </c>
-      <c r="N18">
-        <v>175.729393</v>
-      </c>
-      <c r="O18">
-        <v>0.9051314506709252</v>
-      </c>
-      <c r="P18">
-        <v>0.9051314506709253</v>
-      </c>
-      <c r="Q18">
-        <v>28.14278893211645</v>
-      </c>
-      <c r="R18">
-        <v>253.285100389048</v>
-      </c>
-      <c r="S18">
-        <v>0.007903243884099331</v>
-      </c>
-      <c r="T18">
-        <v>0.007903243884099331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.4804453333333334</v>
-      </c>
-      <c r="H19">
-        <v>1.441336</v>
-      </c>
-      <c r="I19">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="J19">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.106015</v>
-      </c>
-      <c r="N19">
-        <v>0.318045</v>
-      </c>
-      <c r="O19">
-        <v>0.001638158120927638</v>
-      </c>
-      <c r="P19">
-        <v>0.001638158120927638</v>
-      </c>
-      <c r="Q19">
-        <v>0.05093441201333335</v>
-      </c>
-      <c r="R19">
-        <v>0.4584097081200001</v>
-      </c>
-      <c r="S19">
-        <v>1.430373802701505E-05</v>
-      </c>
-      <c r="T19">
-        <v>1.430373802701505E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.4804453333333334</v>
-      </c>
-      <c r="H20">
-        <v>1.441336</v>
-      </c>
-      <c r="I20">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="J20">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3.117853</v>
-      </c>
-      <c r="N20">
-        <v>9.353559000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.04817748631616846</v>
-      </c>
-      <c r="P20">
-        <v>0.04817748631616846</v>
-      </c>
-      <c r="Q20">
-        <v>1.497957923869334</v>
-      </c>
-      <c r="R20">
-        <v>13.481621314824</v>
-      </c>
-      <c r="S20">
-        <v>0.0004206664388882984</v>
-      </c>
-      <c r="T20">
-        <v>0.0004206664388882984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4804453333333334</v>
-      </c>
-      <c r="H21">
-        <v>1.441336</v>
-      </c>
-      <c r="I21">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="J21">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.08763466666666665</v>
-      </c>
-      <c r="N21">
-        <v>0.262904</v>
-      </c>
-      <c r="O21">
-        <v>0.001354142723904981</v>
-      </c>
-      <c r="P21">
-        <v>0.001354142723904981</v>
-      </c>
-      <c r="Q21">
-        <v>0.04210366663822222</v>
-      </c>
-      <c r="R21">
-        <v>0.378932999744</v>
-      </c>
-      <c r="S21">
-        <v>1.182382977960466E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.182382977960466E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.03402066666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.102062</v>
-      </c>
-      <c r="I22">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="J22">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.828008</v>
-      </c>
-      <c r="N22">
-        <v>8.484024</v>
-      </c>
-      <c r="O22">
-        <v>0.04369876216807365</v>
-      </c>
-      <c r="P22">
-        <v>0.04369876216807365</v>
-      </c>
-      <c r="Q22">
-        <v>0.09621071749866666</v>
-      </c>
-      <c r="R22">
-        <v>0.8658964574879999</v>
-      </c>
-      <c r="S22">
-        <v>2.70185292044175E-05</v>
-      </c>
-      <c r="T22">
-        <v>2.70185292044175E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.03402066666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.102062</v>
-      </c>
-      <c r="I23">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="J23">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>58.57646433333333</v>
-      </c>
-      <c r="N23">
-        <v>175.729393</v>
-      </c>
-      <c r="O23">
-        <v>0.9051314506709252</v>
-      </c>
-      <c r="P23">
-        <v>0.9051314506709253</v>
-      </c>
-      <c r="Q23">
-        <v>1.992810367596222</v>
-      </c>
-      <c r="R23">
-        <v>17.935293308366</v>
-      </c>
-      <c r="S23">
-        <v>0.0005596341708657424</v>
-      </c>
-      <c r="T23">
-        <v>0.0005596341708657425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.03402066666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.102062</v>
-      </c>
-      <c r="I24">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="J24">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.106015</v>
-      </c>
-      <c r="N24">
-        <v>0.318045</v>
-      </c>
-      <c r="O24">
-        <v>0.001638158120927638</v>
-      </c>
-      <c r="P24">
-        <v>0.001638158120927638</v>
-      </c>
-      <c r="Q24">
-        <v>0.003606700976666667</v>
-      </c>
-      <c r="R24">
-        <v>0.03246030879</v>
-      </c>
-      <c r="S24">
-        <v>1.012857592201409E-06</v>
-      </c>
-      <c r="T24">
-        <v>1.012857592201409E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.03402066666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.102062</v>
-      </c>
-      <c r="I25">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="J25">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.117853</v>
-      </c>
-      <c r="N25">
-        <v>9.353559000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.04817748631616846</v>
-      </c>
-      <c r="P25">
-        <v>0.04817748631616846</v>
-      </c>
-      <c r="Q25">
-        <v>0.1060714376286667</v>
-      </c>
-      <c r="R25">
-        <v>0.9546429386580001</v>
-      </c>
-      <c r="S25">
-        <v>2.978768176595707E-05</v>
-      </c>
-      <c r="T25">
-        <v>2.978768176595707E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.03402066666666666</v>
-      </c>
-      <c r="H26">
-        <v>0.102062</v>
-      </c>
-      <c r="I26">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="J26">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.08763466666666665</v>
-      </c>
-      <c r="N26">
-        <v>0.262904</v>
-      </c>
-      <c r="O26">
-        <v>0.001354142723904981</v>
-      </c>
-      <c r="P26">
-        <v>0.001354142723904981</v>
-      </c>
-      <c r="Q26">
-        <v>0.00298138978311111</v>
-      </c>
-      <c r="R26">
-        <v>0.026832508048</v>
-      </c>
-      <c r="S26">
-        <v>8.372535723564875E-07</v>
-      </c>
-      <c r="T26">
-        <v>8.372535723564876E-07</v>
+        <v>5.82648939562595E-06</v>
       </c>
     </row>
   </sheetData>
